--- a/data_files/test1.xlsx
+++ b/data_files/test1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\Coding\UIPath\PRY20220169\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513835DD-8AC8-432F-9211-7D7802998CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFEF3A-8F68-4434-9C8D-E736DDF196EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="4284" windowWidth="17280" windowHeight="8736" xr2:uid="{E50C6CF8-A244-46BD-BE75-ABB2EA230F1D}"/>
+    <workbookView xWindow="1140" yWindow="2676" windowWidth="17280" windowHeight="8736" xr2:uid="{7746714C-D750-4A80-B54C-CD29049C18D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="WOS" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="IEEE" sheetId="3" r:id="rId1"/>
+    <sheet name="SD" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>article_title</t>
   </si>
@@ -63,7 +64,7 @@
     <t>journal_if</t>
   </si>
   <si>
-    <t>journal_ci</t>
+    <t>journal_eigenfactor</t>
   </si>
   <si>
     <t>keywords</t>
@@ -75,178 +76,258 @@
     <t>source</t>
   </si>
   <si>
-    <t>Bibliometrics to webometrics</t>
-  </si>
-  <si>
-    <t>Bibliometrics has changed out of all recognition since 1958; becoming established as a field, being taught widely in library and information science schools, and being at the core of a number of science evaluation research groups around the world. This was all made possible by the work of Eugene Garfield and his Science Citation Index. This article reviews the distance that bibliometrics has travelled since 1958 by comparing early bibliometrics with current practice, and by giving an overview of a range of recent developments, such as patent analysis, national research evaluation exercises, visualization techniques, new applications, online citation indexes, and the creation of digital libraries. Webometrics, a modern, fast- growing offshoot of bibliometrics, is reviewed in detail. Finally, future prospects are discussed with regard to both bibliometrics and webometrics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Thelwall, M (Thelwall, Mike) </t>
-  </si>
-  <si>
-    <t>Author Keywordsbibliometricsscholarly publishingwebometrics</t>
-  </si>
-  <si>
-    <t>Research AreasComputer ScienceInformation Science &amp; Library Science</t>
-  </si>
-  <si>
-    <t>Web Of Science</t>
-  </si>
-  <si>
-    <t>Application of bibliometrics in medicine: a historical bibliometrics analysis</t>
-  </si>
-  <si>
-    <t>Background The application of bibliometrics in medicine enables one to analyse vast amounts of publications and their production patterns on macroscopic and microscopic levels. Objectives The aim of the study was to analyse the historical perspective of research literature production regarding application of bibliometrics in medicine. Methods Publications related to application of bibliometrics in medicine from 1970 to 2018 were harvested from the Scopus bibliographic database. Reference Publication Year Spectroscopy was triangulated with the VOSViewer to identify historical roots and evolution of topics and clinical areas. Results The search resulted in 6557 publications. The literature production trend was positive. Historical roots analysis identified 33 historical roots and 16 clinical areas where bibliometrics was applied. Discussion The increase in productivity in application of bibliometrics in medicine might be attributed to increased use of quantitative metrics in research evaluation, publish or perish phenomenon and the increased use of evidence-based medicine. Conclusion The trend of the literature production was positive. Medicine was in the forefront of knowledge development in bibliometrics. reference publication year spectroscopy proved to be an accurate method which was able to identify most of the historical roots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Kokol, P (Kokol, Peter) [1] ; Vosner, HB (Blazun Vosner, Helena) [2] , [3] ; Zavrsnik, J (Zavrsnik, Jernej) [2] </t>
-  </si>
-  <si>
-    <t>Author Keywordsbibliometricscitation analysisevidence-based medicine (EBM)researchbiomedical</t>
-  </si>
-  <si>
-    <t>Research AreasInformation Science &amp; Library Science</t>
-  </si>
-  <si>
-    <t>Four decades of fuzzy sets theory in operations management: application of life-cycle, bibliometrics and content analysis</t>
-  </si>
-  <si>
-    <t>The development of a scientific discipline is partly determined by the growth of its literature. Bibliometrics constitute a set of mathematical and statistical techniques employed to explore, organize, and quantitatively analyze large pools of scientific literature. In this study, 11,433 papers published between 1974 and 2015 are collected and analyzed by applying life-cycle analysis, bibliometrics and text mining in order to provide a full thematic overview of the application of fuzzy theory in operations management. Top countries (i.e. the most productive, influential and collaborative countries), most frequently cited journals, and key research topics are identified by employing bibliometric techniques. Finally, the articles' common research themes and methodologies are determined by combining text mining with experts' input. Results show that the application of fuzzy theory in operations management is still in its infancy, and hence suitable for future research. This study serves as a guide for researchers to identify the hidden patterns, key actors, topics, and methods in this area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Zanjirchi, SM (Zanjirchi, Seyed Mahmoud) [1] ; Abrishami, MR (Abrishami, Mina Rezaeian) [1] , [2] ; Jalilian, N (Jalilian, Negar) [1] </t>
-  </si>
-  <si>
-    <t>Author KeywordsFuzzy sets theoryOperations managementBibliometricsText miningLife-cycle analysis</t>
-  </si>
-  <si>
-    <t>Integrating bibliometrics and roadmapping methods: A case of dye-sensitized solar cell technology-based industry in China</t>
-  </si>
-  <si>
-    <t>Emerging industries are attracting increasing attention as they engage in innovation activities that transgress the boundaries of science and technology. Policy makers and industrial communities use roadmapping methods to predict future industrial growth, but the existing bibliometric/workshop methods have limitations when analyzing the full-lifecycle industrial emergence, including the transitions between science, technology, application, and the mass market. This paper, therefore, proposes a framework that integrates bibliometrics and a technology roadmapping (TRM) workshop approach to strategize and plan the future development of the new, technology-based industry. The dye-sensitized solar cell technology-based industry in China is selected as a case study. In this case, the bibliometrics method is applied to analyze the existing position of science and technology, and TRM workshops are used to strategize the future development from technology to application and marketing. Key events and impact on the development of the new, technology-based industry have been identified. This paper will contribute to the roadmapping and foresight methodology, and will be of interest to solar photovoltaic industry researchers. (C) 2014 Elsevier Inc. All rights reserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Li, X (Li, Xin) [1] ; Zhou, Y (Zhou, Yuan) [1] ; Xue, L (Xue, Lan) [1] ; Huang, LC (Huang, Lucheng) [2] </t>
-  </si>
-  <si>
-    <t>Author KeywordsEmerging industryTechnology roadmapBibliometricsDye-sensitized solar cellPV industry</t>
-  </si>
-  <si>
-    <t>Research AreasBusiness &amp; EconomicsPublic Administration</t>
-  </si>
-  <si>
-    <t>The sources used by bibliometrics-scientometrics as reflected in references</t>
-  </si>
-  <si>
-    <t>The aim of this study was to examine the extent to which the field of bibliometrics and scientometrics makes use of sources outside the field. The research was carried out by examining the references of articles published in Scientometrics in the course of two calendar years, 1990, 2000. The results show that in 2000, 56.9% (and 47.3% in 1990) of the references originated from three fields: scientometrics and bibliometrics; library and information science; and the sociology, history and philosophy of science. When comparing the two periods, there is also a considerable increase in journal self-citation (i.e., references to the journal Scientometrics) and in the percentage of references to journals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Peritz, BC (Peritz, BC) ; Bar-Ilan, J (Bar-Ilan, J) </t>
-  </si>
-  <si>
-    <t>Information Science &amp; Library Science</t>
-  </si>
-  <si>
-    <t>Research AreasNursing</t>
-  </si>
-  <si>
-    <t>Research AreasEducation &amp; Educational Research</t>
-  </si>
-  <si>
-    <t>JOURNAL OF INFORMATION SCIENCE</t>
-  </si>
-  <si>
-    <t>HEALTH INFORMATION AND LIBRARIES JOURNAL</t>
-  </si>
-  <si>
-    <t>Cookie Preference Center</t>
-  </si>
-  <si>
-    <t>The co-authorships network of the Brazilian bibliometrics divided into five periods from 1973 to 1980 is analyzed. It was found that in the period from 1973 to 1980 it is composed of 59 authors with 62 ties. These co-authorships practically quadrupled for the second period from 1973 to 1990, reaching 203 co-authorships with 448 ties. The growth in the size of the co-authorships is not as accelerated in the third decade from 1973 to 2000, when 267 co-authorships were reached with 501 ties. These coauthorships grew to 395 nodes with 501 ties in the following decade and in the last decade to 375 nodes with 501 ties. Density is the ratio of observed ties in the network to the maximum number of possible ties. In this network, the proportion is really very low, reaching 9.5% in the period 1973-1980, falling to 2.2% in the following period, 1.4% between 1973-2000 and 0.6% in the period 1973-2010 and to 0.7% in the last period. In certain situations, a network is divided into subgroups in which all its members are directly or indirectly connected. In the period 1973-1980 there were 14 groups acting in the BB, it grew to 31 components in 12 in the period 1973-1990, but almost doubled to 65 groups operating in the period 1973-2000; it grows to 88 different groups in the period 1973-2010, but decreases to 66 in the period 1973-2018.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Urbizagastegui-Alvarado, R (Urbizagastegui-Alvarado, Ruben) [1] </t>
-  </si>
-  <si>
-    <t>INFORMACAO &amp; SOCIEDADE-ESTUDOS</t>
-  </si>
-  <si>
-    <t>Author KeywordsBibliometricsInformetricsScientometricsBrazilCoword analysis</t>
-  </si>
-  <si>
-    <t>Bibliometrics, citation indexing, and the journals of nursing</t>
-  </si>
-  <si>
-    <t>Bibliometric research has risen in popularity during recent years and an increasing number of investigations now have examined the nursing literature. Our article provides a comprehensive overview of citation-based research in the nursing profession, as well as a discussion of bibliometrics, journal impact factors, and international publishing trends. The debate on evidence-based practice and its potential influence and relevance for nursing scholars is also covered. Although journal performance indicators are, no doubt, important for the contemporary nursing academic, it is the core research skills and attributes that nursing scholars, academics, and educators will need to consider more carefully in future if the next generation of professional nurse researchers is to truly flourish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Smith, DR (Smith, Derek R.) [1] ; Hazelton, M (Hazelton, Michael) [2] </t>
-  </si>
-  <si>
-    <t>NURSING &amp; HEALTH SCIENCES</t>
-  </si>
-  <si>
-    <t>Author Keywordsbibliometricscitation indexingimpact factorsnursing researchpublishing</t>
-  </si>
-  <si>
-    <t>SCIENTOMETRICS</t>
-  </si>
-  <si>
-    <t>TECHNOLOGICAL FORECASTING AND SOCIAL CHANGE</t>
-  </si>
-  <si>
-    <t>A Retrospective Literature Review of Eating Disorder Research (1990-2021): Application of Bibliometrics and Topical Trends</t>
-  </si>
-  <si>
-    <t>Despite the growing importance of eating disorders in society and academic literature, only a few bibliometric review studies using bibliometric analysis were available. Hence, this study aimed to explore and uncover hidden research topics and patterns in articles in terms of eating disorders over the last 30 years. In total, 4111 articles on eating disorders were analyzed using bibliometrics, network analyses, and structural topic modeling as the basis of mixed methods. In addition to general statistics about the journal, several key research topics, such as eating disorder (ED) treatment, ED symptoms, factors triggering ED, family related factors, eating behaviors, and social factors, were found based on topic correlations. This study found the key research variables that are frequently studied with EDs, such as AN, BN, BED, and ARFID. This study may help clinicians comprehend important risk factors associated with EDs. Moreover, the findings about key ED research topics and their association can be helpful for future studies to construct a comprehensive ED research framework. To our knowledge, this is the first study to use topic modeling in an academic journal on EDs and examine the diversity in ED research over 30 years of published research.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Park, E (Park, Eunhye) [1] ; Kim, WH (Kim, Woo-Hyuk) [2] </t>
-  </si>
-  <si>
-    <t>INTERNATIONAL JOURNAL OF ENVIRONMENTAL RESEARCH AND PUBLIC HEALTH</t>
-  </si>
-  <si>
-    <t>Public, Environmental &amp; Occupational Health</t>
-  </si>
-  <si>
-    <t>Author Keywordsbibliometricseating disorderbig datatopic modelingliterature review</t>
-  </si>
-  <si>
-    <t>Research AreasEnvironmental Sciences &amp; EcologyPublic, Environmental &amp; Occupational Health</t>
-  </si>
-  <si>
-    <t>Three decades of research in the technology analysis &amp; strategic management: a bibliometrics analysis</t>
-  </si>
-  <si>
-    <t>This study portrays an overview of the Technology Analysis &amp; Strategic Management (TASM) Journal over the last 31 years. The work examines a broad range of performance aspects of the journal, such as citations and publications' structure, most cited documents, most productive authors, countries, and universities. Besides, this study also presents the visualisation of co-citation, the bibliographic coupling of countries, co-citation, and co-occurrence of the most commonly used keywords. The results show a gradual increase in the number of citations and published documents, and this trend is expected to remain eulogised in the coming years. Results also predict that the developed countries are on top in terms of contribution to TASM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Farrukh, M (Farrukh, Muhammad) [1] ; Shahzad, IA (Shahzad, Imran Ahmed) [2] ; Meng, FC (Meng, Fanchen) [1] ; Wu, YH (Wu, Yihua) [1] ; Raza, A (Raza, Ali) [3] </t>
-  </si>
-  <si>
-    <t>TECHNOLOGY ANALYSIS &amp; STRATEGIC MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Author KeywordsScopusBibliometricsVOSviewer</t>
-  </si>
-  <si>
-    <t>Research AreasBusiness &amp; EconomicsScience &amp; Technology - Other Topics</t>
-  </si>
-  <si>
-    <t>When bibliometrics met mathematics education research: the case of instrumental orchestration</t>
-  </si>
-  <si>
-    <t>Thanks to digital technology, methods for finding and analysing research literature have become dramatically more powerful over the last decades. Also, new bibliometric techniques have been developed and applied to the results of such literature search queries. The application of these bibliometric tools to mathematics education research, however, is rare. In this paper, we explore the value of these techniques for mathematics education research through triangulating bibliometrics and expert findings. To do so, we address the case of instrumental orchestration, and want to know how this notion developed over time and was used in research practices. The results show that bibliometric clustering techniques provided a sense-making sketch of the 'landscape' of instrumental orchestration research. Triangulating the bibliometric findings with expert interpretations seemed an appropriate method to set up compact 'identity cards'. In the case of instrumental orchestration, we identified five main clusters in research literature, characterized by the following labels: Managing teaching complexity, Designing living resources, Teaching with technology, Adult learners, and Interacting with computers. The paper ends with some reflections on the potential of bibliometrics in our field and on future research on instrumental orchestration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> By:Drijvers, P (Drijvers, Paul) [1] ; Grauwin, S (Grauwin, Sebastian) [2] ; Trouche, L (Trouche, Luc) [2] </t>
-  </si>
-  <si>
-    <t>ZDM-MATHEMATICS EDUCATION</t>
-  </si>
-  <si>
-    <t>Author KeywordsBibliometric analysisBibliometric couplingDigital technologyInstrumental genesisInstrumental orchestrationMathematics education</t>
+    <t>Volume 148, September 2022, Pages 101-115</t>
+  </si>
+  <si>
+    <t>Bibliometric research presents unique opportunities to contribute to theory and practice. Top journals and scholars from various disciplines have published numerous highly impactful articles utilizing bibliometric techniques to study different fields’ evolutionary nuances and capture emerging trends. However, studies using bibliometric techniques have often attracted criticism for failing to adequately link their derived analytical and visual outputs with theory building and practice improvement. Consequently, we ask the following question: How can bibliometric research contribute to theory and practice? To this end, this editorial (i) premiers the characteristics and distinct contributions of bibliometric research and (ii) proposes a multifaceted approach that (a) researchers can utilize to develop and demonstrate the potential contributions of their bibliometric research and (b) referees (e.g., editors and reviewers) can rely on to effectively decipher and evaluate the framing, positioning, and contributions of bibliometric research. In doing so, we hope to enhance the understanding and contributions of bibliometric research in advancing theory and practice.</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelDebmalyaMukherjeeaWeng MarcLimbcSatishKumarcdNaveenDonthue</t>
+  </si>
+  <si>
+    <t>Journal of Business Research</t>
+  </si>
+  <si>
+    <t>Bibliometric research</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelAbderahmanRejebaKarimRejebbAlirezaAbdollahicHorstTreiblmaierd</t>
+  </si>
+  <si>
+    <t>Highlights•A bibliometric literature review of Instagram research that includes 2,242 publications by 6,206 authors.•Bibliometric networks and intellectual structure maps of Instagram research are analyzed.•The dominant topics of Instagram research are the psychological motivation of Instagram use, the COVID-19 pandemic, Instagram marketing, social media platforms, and healthcare.</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelMehmet AliKoseogluaMelissa YanYee YickbBrianKingcHasan EvrimAricid</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelEdison JairDuque OlivaabJavier A.Sánchez-TorrescJuan SebastianSanabria Niñod</t>
+  </si>
+  <si>
+    <t>KeywordsCity marketingCity brandScientific productionNetwork analysisPerspectives</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelVladimirPislyakov</t>
+  </si>
+  <si>
+    <t>Graphical abstractDownload : Download high-res image (61KB)Download : Download full-size image.</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelAbdurrahmanEkiciaSevilAlkanbSelahattinAydemiraEsraGurbuzcAhmet HakanUnlud</t>
+  </si>
+  <si>
+    <t>KeywordsNaegleria fowleriPublicationsBibliometric analysis</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelSaeed SazzadJerisA.S.M. NayeemUr Rahman ChowdhuryMst. TaskiaAkterShahriarFrancesMonish HarendraRoy</t>
+  </si>
+  <si>
+    <t>KeywordsCryptocurrencyStock marketVOSViewerBibliometric analysisContent analysisSystematic review</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelPeterWillett</t>
+  </si>
+  <si>
+    <t>Citation analysis</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelLijunWangaXiangyangLibPengyanGuoaShumanGuoaZhenzhongYangaPuchengPeic</t>
+  </si>
+  <si>
+    <t>Highlights•A bibliometric based approach is used to organize the structure of the review.•The hotspot and driving force of hydrogen fuel cell engine are visualized.•Development direction PHM in the PEMFC was analyzed.•Many fault causes and health management architecture are analyzed.</t>
+  </si>
+  <si>
+    <t>Author links open overlay panelFrank A.De StefanoD.O.1ShawnKauraMBE2Paul B.HankeyB.S.3AnandDhariaM.D.1CodyHeskettB.S.4JeremyPetersonM.D.1KojiEbersoleM.D.1</t>
+  </si>
+  <si>
+    <t>What is Core and What Future Holds for Blockchain Technologies and Cryptocurrencies: A Bibliometric Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 23 December 2020 </t>
+  </si>
+  <si>
+    <t>A new era awaits the development of cryptocurrency and blockchain technologies. This study highlights the influential and conceptual aspects of blockchain and cryptocurrency literature with bibliometric analysis. There are 1965 related documents from 2015 and 2020, represent various structures and technologies, cryptocurrencies, and blockchain applications. We have deployed “bibliometrix 3.0”, the r-package, and VOS viewer to analyze key literature aspects. IEEE Access is the core journal for cryptocurrency and blockchain publications. The University of Cagliari, Notreported, and Peking University are key affiliations, and the USA, China, and India are core countries for literary research. H. Wang is the core author with the central theme of security of blockchain technologies. It is a set basis for conceptual aspects, core, and future research streams and themes. The study proposes three research streams: the structure of cryptocurrencies and implications of blockchain technologies, privacy, security management of data and information, and development of optimal information systems. The study further segregates themes into highly centralized and motor themes that are also core themes. Topics related to Consensus protocols, proof of work, distribution ledger technology, blockchain, and cryptocurrency procedures and structure comes under core themes. Highly developed and emerging themes are considered as a stepping stone for future directions. Underlying topics are related to fintech, Islamic finance, valuations, and dynamics of cryptocurrencies.</t>
+  </si>
+  <si>
+    <t>Adeel Nasir; Kamran Shaukat; Kanwal Iqbal Khan; Ibrahim A. Hameed; Talha Mahboob Alam; Suhuai Luo</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsBlockchain ,  Bitcoin ,  Security ,  Social sciences ,  Indexes ,  Databases ,  Collaboration  </t>
+  </si>
+  <si>
+    <t>IEEE Explore</t>
+  </si>
+  <si>
+    <t>Quantitative and Qualitative Analysis of Time-Series Classification Using Deep Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 08 May 2020 </t>
+  </si>
+  <si>
+    <t>Time-series classification is utilized in a variety of applications leading to the development of many data mining techniques for time-series analysis. Among the broad range of time-series classification algorithms, recent studies are considering the impact of deep learning methods on time-series classification tasks. The quantity of related publications requires a bibliometric study to explore most prominent keywords, countries, sources and research clusters. The paper conducts a bibliometric analysis on related publications in time-series classification, adopted from Scopus database between 2010 and 2019. Through keywords co-occurrence analysis, a visual network structure of top keywords in time-series classification research has been produced and deep learning has been introduced as the most common topic by additional inquiry of the bibliography. The paper continues by exploring the publication trends of recent deep learning approaches for time-series classification. The annual number of publications, the productive and collaborative countries, the growth rate of sources, the most occurred keywords and the research collaborations are revealed from the bibliometric analysis within the study period. The research field has been broken down into three main categories as different frameworks of deep neural networks, different applications in remote sensing and also in signal processing for time-series classification tasks. The qualitative analysis highlights the categories of top citation rate papers by describing them in details.</t>
+  </si>
+  <si>
+    <t>Saba Ale Ebrahim; Javad Poshtan; Seyedh Mahboobeh Jamali; Nader Ale Ebrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsBibliometrics ,  Machine learning ,  Databases ,  Task analysis ,  Feature extraction ,  Hidden Markov models ,  Classification algorithms  </t>
+  </si>
+  <si>
+    <t>Mapping the Research on Knowledge Transfer: A Scientometrics Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 23 February 2021 </t>
+  </si>
+  <si>
+    <t>The research on knowledge transfer (KT) has attracted much attention from the researcher and academicians from the last decade. Bibliometric and visualization research on this topic is insufficient. This study aims to analyze the leading trends in the literature of KT and provide a holistic view. Data for this analysis is extracted from the Scopus database. VOSviewer software is used to map different bibliometric indicators such as bibliographic coupling and co-occurrence. This study identifies the most productive countries, authors, journals, and the most prolific publications in knowledge transfer research during 2010-2019. Moreover, it also identifies the most popular themes and suggests some future directions. The study also provides an overview of the trends and trajectories of KT with a visual and schematic frame, which may help the researchers and the practitioners understand the current trends and future research directions.</t>
+  </si>
+  <si>
+    <t>Zhouyang Gu; Fanchen Meng; Muhammad Farrukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsKnowledge transfer ,  Bibliometrics ,  Couplings ,  Market research ,  Databases ,  Collaboration ,  Software  </t>
+  </si>
+  <si>
+    <t>Discovering and Visualizing Knowledge Evolution of Chronic Disease Research Driven by Emerging Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 14 May 2019 </t>
+  </si>
+  <si>
+    <t>The aging population and an unhealthy lifestyle have led to a considerable proportion of chronic diseases in many countries. A new generation of emerging technologies has set off a new wave of revolution around the world, such as cloud computing, the Internet of Things, artificial intelligence, and so on. In recent years, the literature associated with chronic disease research driven by emerging technologies has grown rapidly, but a few studies have used bibliometrics and a visualization approach to conduct deep mining and reveal a panorama of this field. This paper is a bibliometric analysis of chronic disease research driven by emerging technologies, and this paper analyzed and visualized the time distribution, space distribution, literature co-citation, and research focus. Moreover, this paper visualized and determined the dynamic knowledge structure of chronic disease research driven by emerging technologies, which will be helpful in understanding the current research status and identifying the future research directions in this research field for e-health and medical informatics scholars.</t>
+  </si>
+  <si>
+    <t>Dongxiao Gu; Kang Li; Xiaoyu Wang; Xingguo Li; Fenghong Liu; Li Jiang; Fangfang Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsDiseases ,  Diabetes ,  Market research ,  Data visualization ,  Internet of Things ,  Bibliometrics ,  Stroke (medical condition)  </t>
+  </si>
+  <si>
+    <t>Precision Techniques and Agriculture 4.0 Technologies to Promote Sustainability in the Coffee Sector: State of the Art, Challenges and Future Trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 13 August 2020 </t>
+  </si>
+  <si>
+    <t>Precision Agriculture (PA) and Agriculture 4.0 (A4.0) have been widely discussed as a medium to address the challenges related to agricultural production. In this research, we present a Systematic Literature Review (SLR) supported by a Bibliometric Performance and Network Analysis (BPNA) of the use of A4.0 technologies and PA techniques in the coffee sector. To perform the SLR, 87 documents published since 2011 were extracted from the Scopus and Web of Science databases and processed through the Preferred Reporting Items for Systematic reviews and Meta-Analyzes (PRISMA) protocol. The BPNA was carried out to identify the strategic themes in the field of study. The results present 23 clusters with different levels of development and maturity. We also discovered and presented the thematic network structure of the most used A4.0 technologies in the coffee sector. Our findings shows that Internet of Things, Machine Learning and geostatistics are the most used technologies in the coffee sector, we also present the main challenges and trends related to technological adoption in coffee systems. We believe that the demonstrated results have the potential to be considered by researchers in future works and decision making related to the field of study.</t>
+  </si>
+  <si>
+    <t>Michele Kremer Sott; Leonardo Bertolin Furstenau; Liane Mahlmann Kipper; Fáber D. Giraldo; José Ricardo López-Robles; Manuel J. Cobo; Adnan Zahid; Qammer H. Abbasi; Muhammad Ali Imran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsAgriculture ,  Market research ,  Productivity ,  Meteorology ,  Systematics ,  Bibliometrics  </t>
+  </si>
+  <si>
+    <t>Lattice Boltzmann Method for Fluid-Thermal Systems: Status, Hotspots, Trends and Outlook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 04 February 2020 </t>
+  </si>
+  <si>
+    <t>Great advances have been made with the lattice Boltzmann (LB) method for complicated fluid phenomena and fundamental thermal processes over the past three decades. This paper presents a systematic overview of the LB method from 1990 to 2018, based on bibliometric analysis and the Science Citation Index Expanded (SCI-E) database. The results show that China took the leading position in this field, followed by the USA and UK. The Chinese Academy of Sciences had the most publications, while the Los Alamos National Laboratory was first as far as highest average citation per paper and h-index are concerned. Physical Review E was the most productive journal and “Mechanics” was the most frequently used subject category. Keyword analysis indicated that recent research has focused on the natural convection and heat transfer of nanofluid or multiphase flow in complex porous media. Hydrothermal treatment of nanofluid with shape factor on the conditions, such as variable magnetic fields, thermal radiation and slipping boundary, were the research hotspots. Further research perspectives mainly explore the multiscale models for coupling multiple transport phenomena, morphology optimization of porous parameters, new nanoparticles with shape factor, multicomponent LB method considering Knudsen diffusion effect, LB-based hybrid methods, radiation performance or boiling-heat transfer of nanofluid, and the active control of droplets, may continue to attract more attention. Moreover, some new applications, such as phase change of metal foam, erosion induced by nanaofluid, anode circulating, 3D modeling in thermal systems with vibration, and magnetohydrodynamics microfluid devices, could be of interest going forward.</t>
+  </si>
+  <si>
+    <t>Lin Li; Jianfei Lu; Hui Fang; Zichao Yin; Tong Wang; Ronghui Wang; Xinghua Fan; Linjie Zhao; Dapeng Tan; Yuehua Wan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsMathematical model ,  Market research ,  Bibliometrics ,  Microscopy ,  Lattice Boltzmann methods ,  Computational modeling ,  Heat transfer  </t>
+  </si>
+  <si>
+    <t>Analyzing Trends and Patterns Across the Educational Technology Communities Using Fontana Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 30 March 2022 </t>
+  </si>
+  <si>
+    <t>Nowadays, the use of technology in continuously increasing, making a significant impact in almost every area, including education. New areas have gained much popularity in the last years in educational technology (EdTech), such as Massive Open Online Courses (MOOCs) or computer-supported collaborative learning. In addition, research and interest in this area have also been growing over the years. The quantity of research and scientific publications in EdTech is constantly increasing, and trying to analyze and extract information from a set of research papers is often a very time-consuming task. To make this process easier and solve these limitations, we present 
+Fontana
+, a framework that can quickly perform trend and social network analysis using any corpus of documents and its metadata. Specifically, the framework can: 1) Discover the latest trends given any corpus of documents, using Natural Language Processing (NLP) analysis and keywords (bibliometric approach); 2) Discover the evolution of the trends previously identified over the years; 3) Discover the primary authors and papers, along with hidden relationships between existing communities. To test its functionality, we evaluated the framework using a corpus of papers from the EdTech research field. We also followed an open science methodology making the entire framework available in Open Science Framework (OSF) easy to access and use. The case study successfully proved the capabilities of the framework, revealing some of the most frequent topics in the area, such as “EDM,” “learning analytics,” or “collaborative learning.” We expect our work to help identifying trends and patterns in the EdTech area, using natural language processing and social network analysis to objectively process large amounts of research.</t>
+  </si>
+  <si>
+    <t>Manuel J. Gomez; José A. Ruipérez-Valiente; Félix J. García Clemente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsBibliometrics ,  Market research ,  Task analysis ,  Metadata ,  Social networking (online) ,  Databases ,  Network analyzers  </t>
+  </si>
+  <si>
+    <t>Games and Rewards: A Scientometric Study of Rewards in Educational and Serious Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 16 March 2022 </t>
+  </si>
+  <si>
+    <t>In this study we provide a new viewpoint on the body of literature regarding rewards in serious and educational games. The study includes a quantitative bibliometric analysis of literature in this context from 1969 to 2020. The dataset from the Scopus abstract and citation database was analyzed with the Bibliometrix R library. The data set was manually cleaned to contain only the relevant articles and conference papers. The data was then categorized to match the common themes. From the remaining documents, the amount of annual numbers of publications is presented and the most contributing countries are shown. The most frequent terms from the abstracts and keywords set by the authors are presented, and a co-occurrence network is drawn from the same data. The results of this study reveal that the most occurring topics in this dataset are gamification, physical activity, health, game design, and game-based learning. New directions for research are provided as the most commonly used media appear to be video games and mobile devices in addition to the literature being mostly focused on theory and not practical application.</t>
+  </si>
+  <si>
+    <t>Janne Tyni; Anni Tarkiainen; Sonsoles López-Pernas; Mohammed Saqr; Juho Kahila; Roman Bednarik; Matti Tedre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsGames ,  Education ,  Bibliometrics ,  Collaboration ,  Serious games ,  Clustering algorithms ,  Vocabulary  </t>
+  </si>
+  <si>
+    <t>A Comparative Study of Chinese and Foreign Research on the Internet of Things in Education: Bibliometric Analysis and Visualization</t>
+  </si>
+  <si>
+    <t>Page(s):  130127 - 130140</t>
+  </si>
+  <si>
+    <t>Known as the third revolution of information technology, the Internet of Things (IoT) embodies the transformation of human technology from “virtual” to “reality”. The application of IoT in education has risen the concerns of both researchers and practitioners. However, there are few research on using bibliometric to visually analyze the hotspots and trends of the IoT in education. In this study, a total of 2257 articles, including (1) 1243 domestic articles from 2005 to 2021; (2) 1014 foreign articles from 2005 to 2021, were collected for comparative analysis between China and foreign countries using the visualization software CiteSpace. The results show that authoritative journals both at home and abroad have paid varying degrees of attentions to the basic theories, emerging technologies and applications of IoT in education. The number of research literatures on this topic is generally increasing year by year. It is particularly worth mentioning that in the field of the IoT in education, on the one hand, the United States, China and Spain are the top three major countries actively participate in, and their international academic cooperation is relatively close; on the other hand, the main research findings are concentrated in the northern and eastern hemispheres, while there is less distributed in the southern and western hemispheres. Regrading research directions, on the whole, much attention has been paid to the construction of smart learning environment; to be specific, its research focus has shifted to the deep integration of intelligent technology and education (e.g., learning feedback supported by IoT technology is delivered to student with the purpose of improving teaching effect). However, in general, the application of IoT in education is still in its infancy, and the scope of practical application is relatively limited. Therefore, future research will concentrate on construction of smart education environment, curriculum teaching and data-driven education...</t>
+  </si>
+  <si>
+    <t>Zhicheng Dai; Qianqian Zhang; Xiaoliang Zhu; Liang Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsEducation ,  Internet of Things ,  Data visualization ,  Australia ,  Market research ,  Information and communication technology  </t>
+  </si>
+  <si>
+    <t>Two-Stage Topic Extraction Model for Bibliometric Data Analysis Based on Word Embeddings and Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Publication: 07 October 2019 </t>
+  </si>
+  <si>
+    <t>Topic extraction is an essential task in bibliometric data analysis, data mining and knowledge discovery, which seeks to identify significant topics from text collections. The conventional topic extraction schemes require human intervention and involve also comprehensive pre-processing tasks to represent text collections in an appropriate way. In this paper, we present a two-stage framework for topic extraction from scientific literature. The presented scheme employs a two-staged procedure, where word embedding schemes have been utilized in conjunction with cluster analysis. To extract significant topics from text collections, we propose an improved word embedding scheme, which incorporates word vectors obtained by word2vec, POS2vec, word-position2vec and LDA2vec schemes. In the clustering phase, an improved clustering ensemble framework, which incorporates conventional clustering methods (i.e., k-means, k-modes, k-means++, self-organizing maps and DIANA algorithm) by means of the iterative voting consensus, has been presented. In the empirical analysis, we analyze a corpus containing 160,424 abstracts of articles from various disciplines, including agricultural engineering, economics, engineering and computer science. In the experimental analysis, performance of the proposed scheme has been compared to conventional baseline clustering methods (such as, k-means, k-modes, and k-means++), LDA-based topic modelling and conventional word embedding schemes. The empirical analysis reveals that ensemble word embedding scheme yields better predictive performance compared to the baseline word vectors for topic extraction. Ensemble clustering framework outperforms the baseline clustering methods. The results obtained by the proposed framework show an improvement in Jaccard coefficient, Folkes &amp; Mallows measure and F1 score.</t>
+  </si>
+  <si>
+    <t>Aytuğ Onan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE KeywordsTask analysis ,  Clustering algorithms ,  Text categorization ,  Data analysis ,  Clustering methods ,  Text mining  </t>
+  </si>
+  <si>
+    <t>3PaperCitations2388FullText Views</t>
+  </si>
+  <si>
+    <t>7PaperCitations3595FullText Views</t>
+  </si>
+  <si>
+    <t>7PaperCitations797FullText Views</t>
+  </si>
+  <si>
+    <t>5PaperCitations804FullText Views</t>
+  </si>
+  <si>
+    <t>33PaperCitations3668FullText Views</t>
+  </si>
+  <si>
+    <t>20PaperCitations1533FullText Views</t>
+  </si>
+  <si>
+    <t>259FullText Views</t>
+  </si>
+  <si>
+    <t>346FullText Views</t>
+  </si>
+  <si>
+    <t>678FullText Views</t>
+  </si>
+  <si>
+    <t>43PaperCitations3075FullText Views</t>
   </si>
 </sst>
 </file>
@@ -282,10 +363,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,27 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E565FFC-CCF1-4FE3-9DF6-04453FE7B267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC830855-E22A-4133-ACF9-0E16FABD3AE2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -661,352 +728,352 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39661</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>151</v>
-      </c>
-      <c r="E2">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
+      <c r="H2">
+        <v>3.476</v>
+      </c>
       <c r="I2">
-        <v>0.81</v>
+        <v>0.24936</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43868</v>
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3.55</v>
+        <v>3.476</v>
       </c>
       <c r="I3">
-        <v>0.79</v>
+        <v>0.24936</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>3.476</v>
+      </c>
+      <c r="I4">
+        <v>0.24936</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39783</v>
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>3.476</v>
+      </c>
+      <c r="I5">
+        <v>0.24936</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>2.214</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43630</v>
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>3.476</v>
       </c>
       <c r="I6">
-        <v>0.91</v>
+        <v>0.24936</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42217</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>3.476</v>
+      </c>
+      <c r="I7">
+        <v>0.24936</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="E7">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44764</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>3.476</v>
       </c>
       <c r="I8">
-        <v>0.93</v>
+        <v>0.24936</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1">
-        <v>37257</v>
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>3.476</v>
       </c>
       <c r="I9">
-        <v>0.91</v>
+        <v>0.24936</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44197</v>
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>3.476</v>
       </c>
       <c r="I10">
-        <v>0.75</v>
+        <v>0.24936</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43993</v>
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>52</v>
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>2.4809999999999999</v>
+        <v>3.476</v>
+      </c>
+      <c r="I11">
+        <v>0.24936</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1082,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC3B542-3347-4B42-91A4-379CFFB9A4C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D27EA0-0FEC-4BAD-8BE4-04D8CC4C55CB}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>-2021</v>
+      </c>
+      <c r="K4">
+        <v>-2021</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53C7CB-234E-4741-939D-6BAC3E74D6D9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
